--- a/app/static/layout/movimientosBancariosLayout.xlsx
+++ b/app/static/layout/movimientosBancariosLayout.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\AngularJs\Tesoreria\app\static\layout\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,6 +55,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,12 +121,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,52 +415,54 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="1" max="1" width="28" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" style="5" customWidth="1"/>
+    <col min="3" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/static/layout/movimientosBancariosLayout.xlsx
+++ b/app/static/layout/movimientosBancariosLayout.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
@@ -56,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -128,10 +133,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,7 +420,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
